--- a/jacobi/src/test/resources/jacobi/test/data/FrancisGivensQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/FrancisGivensQRTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="-75" windowWidth="27795" windowHeight="12585" activeTab="4"/>
+    <workbookView xWindow="405" yWindow="1710" windowWidth="27795" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="6x6" sheetId="1" r:id="rId1"/>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT111"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97:M103"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21301,7 +21301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="H97" sqref="H97:M103"/>
     </sheetView>
   </sheetViews>
@@ -26495,7 +26495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -27873,1151 +27873,1151 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*10-3</f>
-        <v>2.0559019753857122</v>
+        <v>-2.1935369605278607</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:K16" ca="1" si="0">RAND()*10-3</f>
-        <v>6.6756292216447157</v>
+        <v>0.2815360524646775</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0419278159865364</v>
+        <v>0.42700761580922997</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96622065007055324</v>
+        <v>4.9532089091857907</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1614057093371351</v>
+        <v>3.7326285041340528</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7902015153384419</v>
+        <v>0.65056525688583733</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5556666916284279</v>
+        <v>4.9297001643134966</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5328050662836326</v>
+        <v>2.2851398434858545</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1796039937845011</v>
+        <v>1.4391710024343878</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4563300883003674</v>
+        <v>2.4182190220859541</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0721584471688006</v>
+        <v>6.6745171980441071</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:K25" ca="1" si="1">RAND()*10-3</f>
-        <v>5.4054180231287869</v>
+        <v>-0.46386927925259958</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8311983999888009</v>
+        <v>4.7336990463458175</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0447352939008034</v>
+        <v>0.34378010983182339</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4580127397474225</v>
+        <v>4.8053356962107925</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6108859711817587</v>
+        <v>6.1471727834996326</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5161949546560187</v>
+        <v>-0.38616009081733882</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5895583124318833</v>
+        <v>-1.856029223817331</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0549744237229177</v>
+        <v>2.3481976907688438</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0901348892545819</v>
+        <v>3.4521798943382969</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7534682838974653</v>
+        <v>1.0871035673458564</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2937445289494791</v>
+        <v>-0.62620910656266693</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0112257082468368</v>
+        <v>6.3255312330659645</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2170432893299852</v>
+        <v>4.56568907096137</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.526365807877756</v>
+        <v>4.2812386151423354E-2</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.8437359809239835</v>
+        <v>2.0135077595151127</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.9008097663343877</v>
+        <v>1.7057861836150536</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9316713402051597</v>
+        <v>-0.30209291043271591</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9814634462349363</v>
+        <v>4.3148372436533577E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5165683129844147</v>
+        <v>3.0023039993141589</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9807087528439666</v>
+        <v>3.6298451193945107</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9481949478024347</v>
+        <v>-1.0846761802396139</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7927567344901645</v>
+        <v>4.4590983870450156</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0332003445847775</v>
+        <v>-1.0067755087550463</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5919558551366004</v>
+        <v>4.3365389293184178</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1882093639321507</v>
+        <v>-2.7571127274244085</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7869700154288886</v>
+        <v>5.1939079980519089</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1274940707939711</v>
+        <v>5.3899385422095918</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2892042817576383</v>
+        <v>6.5058276744356878</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9863016449281954</v>
+        <v>-0.55820780884866039</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3100553575777623</v>
+        <v>3.7733704216519586</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5049613787087708</v>
+        <v>1.5497141632031219</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50615399517085446</v>
+        <v>-2.4458060056183157</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59142246307644486</v>
+        <v>4.3707299943564362</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2149919095769084</v>
+        <v>1.7651197260902229</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4379819752302918</v>
+        <v>5.6676431881454299</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4895711419974589</v>
+        <v>-1.2146124507813745</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.381597396866137</v>
+        <v>1.1933784065422302</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2395291944543412</v>
+        <v>2.40185050345218</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28512914408349488</v>
+        <v>-0.21089645256099976</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9701065488907006</v>
+        <v>4.9793836863378242</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.89909276449454278</v>
+        <v>2.6834777591574701</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.371974006474904</v>
+        <v>4.6191447364776703</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1454662275359819</v>
+        <v>3.7018465103169111</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.66629589224733987</v>
+        <v>-2.5217737708822705</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0190165296585549</v>
+        <v>2.094346857910014</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.95813764113824629</v>
+        <v>6.5838211255047643</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4552093820035665</v>
+        <v>6.3540839305277093</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4485050164222875</v>
+        <v>4.290856284888636</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7664536972585898</v>
+        <v>1.8059117849928086E-2</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2889260021123903</v>
+        <v>-7.7460202941205925E-2</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7951040149645561</v>
+        <v>-0.88163621707940987</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84032853789815132</v>
+        <v>-0.17369311711684521</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.7126092285956438</v>
+        <v>4.3904097359325762</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6443010635370001</v>
+        <v>3.2844098972604598</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26403089844945615</v>
+        <v>2.2039772707436862</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7799916170758916</v>
+        <v>6.1648438626977224</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0742147767182502</v>
+        <v>-0.28586978975807931</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2639770095891674</v>
+        <v>4.9452254933046049</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1822747708806176</v>
+        <v>1.5676329535783546</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7691457818332461</v>
+        <v>-1.5805211323846509</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84317244582852213</v>
+        <v>6.4534233955185361</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.26557067004488966</v>
+        <v>0.40195289255544653</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9274444120313863</v>
+        <v>1.6948231058407641</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4202775765611584</v>
+        <v>0.60324565149909759</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2494843752428793</v>
+        <v>-0.21322675258629786</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2246229692196202</v>
+        <v>2.0704826485104757</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13192803759663541</v>
+        <v>1.2079211868709807</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.48942890066653</v>
+        <v>5.6683051415610102</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7858156867574877</v>
+        <v>-1.3236780044238834</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.946440818875713</v>
+        <v>1.0253074655893712</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8166235035537124</v>
+        <v>2.6792062836750858</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1207536800815028</v>
+        <v>0.35433574941586787</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2501965583611536</v>
+        <v>0.28900126250546432</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2069820288001178</v>
+        <v>2.1377670560967195</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.023188496295198</v>
+        <v>-1.4262586177214527</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0949347722544385</v>
+        <v>4.1318208822966458</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4941910486495154</v>
+        <v>4.1126626294975743</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28551373406146041</v>
+        <v>5.3309801426674692</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9127398226851611</v>
+        <v>-0.22288036322674021</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3813028715663727</v>
+        <v>1.9211906113080914</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.047058570013534</v>
+        <v>-1.4760549561860221</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7319566881719077</v>
+        <v>-1.6698756193925552</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3176315987070737</v>
+        <v>-1.7723558444535521</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8040979611342198</v>
+        <v>3.0180807174655442</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6667200237512376</v>
+        <v>-2.3175115223936302</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37281466815536657</v>
+        <v>2.7371581222901735</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3561533516084658</v>
+        <v>4.4641867109286579</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2326657426224426E-2</v>
+        <v>-1.7423094998793371</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52456504510446633</v>
+        <v>-1.3391319372443995</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.72221719051317557</v>
+        <v>6.4891721808755509</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7849123926638288</v>
+        <v>2.1518666639082467</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4830820757157488</v>
+        <v>9.3551724171172523E-3</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.735347189146994</v>
+        <v>-0.93981758859057507</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9773723356404709</v>
+        <v>2.3745797347644366</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7555988483163159</v>
+        <v>1.7408270935910863</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8210913874666534</v>
+        <v>4.2946829021466142</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.362928307347671</v>
+        <v>-0.96700666156928472</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.95476929356990103</v>
+        <v>-2.4260450872249892</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6334959124606172</v>
+        <v>4.0898519304965628</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.1612947164380838</v>
+        <v>-1.5294605454226102</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.60987425385120186</v>
+        <v>2.4426602418887127</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29638621582387792</v>
+        <v>-0.56468147151082126</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.25285305252277102</v>
+        <v>-2.7386576246925527</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1439902426105473</v>
+        <v>-0.33086315042846381</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5391518297880413</v>
+        <v>-2.4826018570586723</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.659960602856259</v>
+        <v>5.6818883522609465</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8993839994663801</v>
+        <v>3.0114575576809006</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3933660249123552</v>
+        <v>3.6170370303521615</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.97411382262355062</v>
+        <v>-1.2291158067525805</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7415247619862093</v>
+        <v>1.91027785084336</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7442041374198922</v>
+        <v>3.5403591553943254</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.279578795587248</v>
+        <v>3.2555513078352494</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3362478751564248</v>
+        <v>-1.9953575513698458</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.99871332041760397</v>
+        <v>-2.1314503982504069</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1548337364076353E-2</v>
+        <v>0.71707120290674986</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0684081329541826</v>
+        <v>-2.9505327895566653</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34837537776673688</v>
+        <v>2.4203761315454617</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0611400920014269</v>
+        <v>2.5760331341632927</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4097925456114417</v>
+        <v>6.9880657096166754</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1369799714431998</v>
+        <v>-1.2063312552852319</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93189443087384571</v>
+        <v>-2.6563935287800429</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9271343501385427E-2</v>
+        <v>-0.10374010998770178</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9215678840092671</v>
+        <v>2.9315813321637716</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3075838745685946</v>
+        <v>3.3277384432052663</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73695842723799299</v>
+        <v>5.6620643780197728</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6586042836252588</v>
+        <v>6.5536933721500681</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7038223202658376</v>
+        <v>-1.9838079282883454</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9508206210954389</v>
+        <v>5.4578685742410489</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6813967714108404</v>
+        <v>2.4160069788392748</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2396572294453296</v>
+        <v>-1.2278738777115223</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6630054509706573</v>
+        <v>3.440872279470879</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59264852870360851</v>
+        <v>5.0075112181006531</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6057223088035446</v>
+        <v>4.930951225478081</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.411704182139859</v>
+        <v>-0.7120082964390626</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5722039269027608</v>
+        <v>2.7933350910144998</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.5160123515335817</v>
+        <v>3.34230264811195</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84593731253338289</v>
+        <v>-1.4661914776245029</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.13567590639642146</v>
+        <v>2.6735909582282993</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8064176716294407</v>
+        <v>5.3868559108612111</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1628535835611373</v>
+        <v>3.1580322321310819</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.64485748398025411</v>
+        <v>1.6417512787290285</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.246569806942623</v>
+        <v>4.0263263685322528</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89324640473209138</v>
+        <v>6.0927093775284202</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>3.064289376374953</v>
+        <v>6.9726908841412669</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.171988192352063</v>
+        <v>-2.1710689623477526</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.88733731373332603</v>
+        <v>0.13383142478781185</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7898332354923472</v>
+        <v>0.97284430965151092</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.937640589396203</v>
+        <v>0.14293211343987711</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6931991404686837</v>
+        <v>3.207432952827391</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5003350705613121</v>
+        <v>-2.271035228447404</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78993181207242369</v>
+        <v>1.9418614264485692</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6600938267642187</v>
+        <v>0.67183206585091604</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7508969909972505</v>
+        <v>5.9705033104580725</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.46264110146119819</v>
+        <v>-1.8280086518213807</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2233129139120553</v>
+        <v>-2.6615519581835017</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5005224053489474</v>
+        <v>-2.277807887760642</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6671246366817454</v>
+        <v>6.1137531617064784</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0945408628806472</v>
+        <v>-2.2401984900154863</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2184669961751462</v>
+        <v>3.6964502219311743</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.587144713694036</v>
+        <v>4.027329952533087</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.96754663260620699</v>
+        <v>4.1233930413121174</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9844393882126701</v>
+        <v>-2.9559397713852773</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50355960303335401</v>
+        <v>2.7027378414279983</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.109368755524633</v>
+        <v>4.1794782574590528</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0441680458451401</v>
+        <v>-2.6436177327847061</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7433453308108202</v>
+        <v>-1.719777664723577</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9697950663582513</v>
+        <v>5.9987870160611241</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.64640008475648836</v>
+        <v>-1.6104709860589335</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8283001317239869</v>
+        <v>2.6877163463195677</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5101740411904077</v>
+        <v>0.75553408224561069</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8473373449883699</v>
+        <v>2.680225705797838</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8769685824805959</v>
+        <v>2.0291947683122631</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8533014900219786</v>
+        <v>0.10938622942674936</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.118378259736339</v>
+        <v>-0.92942573002989448</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2183505441865483</v>
+        <v>-7.1780185050620116E-2</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2101085130323845</v>
+        <v>0.21454753621271738</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8339495064871265</v>
+        <v>5.6877558695231443</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3198389278117197</v>
+        <v>5.6521108080584224</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4389752606604818</v>
+        <v>-0.59676493557821519</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80614496886612663</v>
+        <v>-1.2936545470467038</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3240013035024008</v>
+        <v>2.1019195679401808</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6673045070393364</v>
+        <v>3.0410451445884226</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1328449259037328</v>
+        <v>-0.48022299947204061</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.1803002225803612</v>
+        <v>2.4037546399081151</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2489481976273993</v>
+        <v>6.4692670492004627</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7789429809478374</v>
+        <v>6.1617888421107043</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71336790000675965</v>
+        <v>5.1402675107191662</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6748102169103021</v>
+        <v>0.26408999176906578</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5995556669088202</v>
+        <v>2.3042290680018596</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2145848550770575</v>
+        <v>5.6423008263683769</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8388472916907146</v>
+        <v>-1.9636068837786376</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2537440326878209</v>
+        <v>-1.9388794501804514</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5074582767733009</v>
+        <v>5.116369902047623</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.8660677932867404</v>
+        <v>-1.3745209951686572</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5190212537432131</v>
+        <v>4.3351224242923196</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2439577800808372</v>
+        <v>-1.0688367438299013</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5257125922228139</v>
+        <v>5.3672564571982679</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21707185006675989</v>
+        <v>0.49335851891141047</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4080398055208869</v>
+        <v>1.1905205198501019</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37563964078465339</v>
+        <v>2.5235865630403342</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51322304712124556</v>
+        <v>4.4345174167557975</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7370850435813041</v>
+        <v>5.3965764664638254</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3906725252844421</v>
+        <v>4.1919629533897282</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.651771309586632</v>
+        <v>-2.251587702354005</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7769362829167505</v>
+        <v>2.1833986691818623</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9429812513798517</v>
+        <v>1.2105396962232522</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2624790379872568</v>
+        <v>0.62072005911815209</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5377467966825566</v>
+        <v>4.282841380719268</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4196064656372585</v>
+        <v>-1.0442672866807818</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16573916192489646</v>
+        <v>4.4638308304485417</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70300969914433731</v>
+        <v>3.5723856308892357</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8189815983770785</v>
+        <v>-2.9086293919576018</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7881960762575879</v>
+        <v>1.8522840724714165</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0439388188666392</v>
+        <v>2.6609724637470693</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.51064410334314037</v>
+        <v>2.0788647902182191</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3400453117854454E-3</v>
+        <v>-0.76785000243975432</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4099971770602853</v>
+        <v>-2.1099553882804942</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8721590918790056</v>
+        <v>-2.4486389087506994</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8769055276570095</v>
+        <v>-2.3422213728244063</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.46873669968178522</v>
+        <v>4.5161498394754176</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.3465638221920071</v>
+        <v>1.513929912739016</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9975947023732505</v>
+        <v>3.4631801841040923</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7734567558979455</v>
+        <v>1.1369982389899826</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2820153234834342</v>
+        <v>4.3829157002869872</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8769084389489672</v>
+        <v>4.0078357075924345</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6028188901002336</v>
+        <v>4.9063061556644962</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1178995455475151</v>
+        <v>3.0440984874558037</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9698882057119742</v>
+        <v>-2.9082264315714177</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2792980253119106</v>
+        <v>-0.15135661067775263</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3264921856113006</v>
+        <v>2.3040522671019215</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0500492290354337</v>
+        <v>3.9415226593953516</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>4.817797784289402</v>
+        <v>5.5957559528089291</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8228294371676537</v>
+        <v>-2.0739475804074643</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7573051517642666</v>
+        <v>2.009167184836274</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6503267368911843</v>
+        <v>-2.2249643396777792</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6824561627290775</v>
+        <v>0.76945590343174519</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4811404113110767</v>
+        <v>-0.29379016977195871</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2111867847292643</v>
+        <v>-1.0792874445082186</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2975748968419962</v>
+        <v>4.9941451605531153</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36023955836141752</v>
+        <v>-2.9785934290832823</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1054672746204384</v>
+        <v>4.5106605501582946</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5629994963335152</v>
+        <v>3.1555278210454931</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3379668382215542</v>
+        <v>-1.2511577488851384</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5139415501103883</v>
+        <v>-0.97303995011014122</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9812785316711912</v>
+        <v>-0.25904066719651908</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0293359834198057</v>
+        <v>3.8105132968795621</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5951116768855744E-2</v>
+        <v>6.8615268909612261</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0542622367185253</v>
+        <v>1.3881572615213145</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>3.210013942539109</v>
+        <v>2.5489599519145596</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.65844967371631213</v>
+        <v>1.799057476674184</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1623839676943177</v>
+        <v>4.9320365118563716</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.4444819585455777</v>
+        <v>3.1467957649493732</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4417898465830525E-3</v>
+        <v>-1.1755530890028583</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.16665652006575282</v>
+        <v>3.495881170180934</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.67458143744558541</v>
+        <v>-0.72652028521258227</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2868183114392133</v>
+        <v>-1.1409357547344041</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.2878581002017162</v>
+        <v>6.9396648804531935</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2644823070786906</v>
+        <v>4.2077604933103769</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7602615510633841</v>
+        <v>-0.77822626952413332</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0912640509306044</v>
+        <v>-1.6022157064353255</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7099164842812478</v>
+        <v>2.3462894667893055</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3651819011345274</v>
+        <v>3.1169749050756685</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5155415961891059</v>
+        <v>-0.66720749237437271</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89639499070202433</v>
+        <v>6.6999057380524718</v>
       </c>
     </row>
   </sheetData>
